--- a/SCH-STH/Impact assessments/Benin/2024/Oct 2024/bj_sch_sth_impact_2410_3_kato_katz_v1.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/Oct 2024/bj_sch_sth_impact_2410_3_kato_katz_v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFGH-WHO\BENIN\SCH STH Janv 2024\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\Oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AB86C1-BD98-430E-B3A9-23D5E4726943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="3120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -293,9 +294,6 @@
     <t>select_one yesNo</t>
   </si>
   <si>
-    <t>bj_k2_2</t>
-  </si>
-  <si>
     <t>Cet identifiant est déjà utilisé</t>
   </si>
   <si>
@@ -305,16 +303,19 @@
     <t>Résultats KK</t>
   </si>
   <si>
-    <t>bj_sch_sth_impact_202401_3_kato_katz_v4</t>
-  </si>
-  <si>
-    <t>(2024 Janvier) - 3. SCH/STH - Kato Katz V4</t>
+    <t>bj_sch_sth_impact_2410_3_kato_katz_v1</t>
+  </si>
+  <si>
+    <t>(2024 Octobre) - 3. SCH/STH - Kato Katz</t>
+  </si>
+  <si>
+    <t>bj_k_2010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -855,14 +856,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1077,10 +1078,10 @@
         <v>79</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="8"/>
@@ -1166,10 +1167,10 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>88</v>
@@ -1542,7 +1543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1685,11 +1686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1711,10 +1712,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
